--- a/template_invoice.xlsx
+++ b/template_invoice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="408" windowWidth="18192" windowHeight="8976"/>
+    <workbookView xWindow="120" yWindow="405" windowWidth="18195" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Поставщик</t>
-  </si>
-  <si>
-    <t>__________________ / Г.С.Качановский /</t>
   </si>
   <si>
     <t>Телефон: +375 44 774 47 04</t>
@@ -109,13 +106,19 @@
   </si>
   <si>
     <t>код банка (БИК) ALFABY2X, УНП 192634348, ОКПО 382810715000</t>
+  </si>
+  <si>
+    <t>Покупатель</t>
+  </si>
+  <si>
+    <t>__________________ / Г.С.Качановский</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,37 +419,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,48 +459,71 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -608,6 +613,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -642,6 +648,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -817,62 +824,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="15.6">
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -881,7 +888,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -891,7 +898,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -901,7 +908,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -911,7 +918,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -920,161 +927,161 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:10" ht="6.6" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="2:10" ht="12.6" customHeight="1">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="10.95" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18" t="s">
+    </row>
+    <row r="17" spans="2:12" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="12.6" customHeight="1" thickBot="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21" t="s">
+    <row r="18" spans="2:12" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="49.2" customHeight="1" thickBot="1">
-      <c r="B19" s="23">
+    <row r="19" spans="2:12" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="19">
         <v>100</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="19">
         <f>E19*F19</f>
         <v>229.99999999999997</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="21">
         <v>0</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="22">
         <f>G19*H19/100</f>
         <v>0</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="19">
         <f>G19+I19</f>
         <v>229.99999999999997</v>
       </c>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="E20" s="36">
         <f>SUM(E19)</f>
         <v>100</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="34">
+      <c r="F20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="43">
         <f>G19</f>
         <v>229.99999999999997</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="H20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="43">
         <f>I19</f>
         <v>0</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="43">
         <f>SUM(J19:J19)</f>
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="7.95" customHeight="1" thickBot="1">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="20"/>
+    <row r="21" spans="2:12" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:12" ht="8.4" customHeight="1"/>
-    <row r="23" spans="2:12">
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="2:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="6" customHeight="1"/>
-    <row r="25" spans="2:12">
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15.6">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>14</v>
       </c>
@@ -1082,73 +1089,77 @@
       <c r="D28" s="38"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="39"/>
+      <c r="G28" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="2:12" ht="9" customHeight="1">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+    <row r="29" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1">
-      <c r="B31" s="45" t="s">
-        <v>15</v>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.6">
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-    </row>
-    <row r="33" spans="2:10" ht="21.75" customHeight="1">
-      <c r="B33" s="45"/>
+      <c r="F32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="45"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1160,7 +1171,13 @@
       <c r="J34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="J20:J21"/>
@@ -1169,10 +1186,7 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="F29:J29"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -1186,24 +1200,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
